--- a/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$25</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="200">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -229,18 +229,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t>Mapping: vCard Mapping</t>
   </si>
   <si>
     <t/>
@@ -262,19 +250,13 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>XAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>Address.id</t>
   </si>
   <si>
@@ -294,20 +276,24 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Address.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -337,6 +323,12 @@
 </t>
   </si>
   <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t>Address.use</t>
   </si>
   <si>
@@ -365,6 +357,9 @@
     <t>required</t>
   </si>
   <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/address-use</t>
   </si>
   <si>
@@ -372,15 +367,6 @@
 </t>
   </si>
   <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./AddressPurpose</t>
-  </si>
-  <si>
     <t>Address.type</t>
   </si>
   <si>
@@ -390,21 +376,18 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
   </si>
   <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/address-type</t>
   </si>
   <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>address type parameter</t>
-  </si>
-  <si>
     <t>Address.text</t>
   </si>
   <si>
@@ -423,15 +406,6 @@
     <t>137 Nowhere Street, Erewhon 9132</t>
   </si>
   <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>address label parameter</t>
-  </si>
-  <si>
     <t>Address.line</t>
   </si>
   <si>
@@ -441,28 +415,13 @@
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>137 Nowhere Street</t>
   </si>
   <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>./StreetAddress (newline delimitted)</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
     <t>Address.line.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>Address.line.extension</t>
@@ -481,9 +440,6 @@
     <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
   </si>
   <si>
-    <t>ADXP[partType=CAR]</t>
-  </si>
-  <si>
     <t>Address.line.extension:additionalLocator</t>
   </si>
   <si>
@@ -497,9 +453,6 @@
     <t>This can be a unit designator, such as apartment number, suite number, or floor. There may be several unit designators in an address (e.g., "3rd floor, Appt. 342"). This can also be a designator pointing away from the location, rather than specifying a smaller location within some larger one (e.g., Dutch "t.o." means "opposite to" for house boats located across the street facing houses).</t>
   </si>
   <si>
-    <t>ADXP[partType=ADL]</t>
-  </si>
-  <si>
     <t>Address.line.extension:houseNumber</t>
   </si>
   <si>
@@ -513,9 +466,6 @@
     <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
   </si>
   <si>
-    <t>ADXP[partType=BNR]</t>
-  </si>
-  <si>
     <t>Address.line.extension:buildingNumberSuffix</t>
   </si>
   <si>
@@ -529,9 +479,6 @@
     <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
   </si>
   <si>
-    <t>ADXP[partType=BNS]</t>
-  </si>
-  <si>
     <t>Address.line.extension:streetNameType</t>
   </si>
   <si>
@@ -545,9 +492,6 @@
     <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
   </si>
   <si>
-    <t>ADXP[partType=STTYP]</t>
-  </si>
-  <si>
     <t>Address.line.extension:streetNamebase</t>
   </si>
   <si>
@@ -564,9 +508,6 @@
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
-    <t>ADXP[partType=STB]</t>
-  </si>
-  <si>
     <t>Address.line.extension:postBox</t>
   </si>
   <si>
@@ -580,16 +521,10 @@
     <t>A numbered box located in a post station.</t>
   </si>
   <si>
-    <t>ADXP[partType=POB]</t>
-  </si>
-  <si>
     <t>Address.line.value</t>
   </si>
   <si>
     <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
   </si>
   <si>
     <t>1048576</t>
@@ -614,18 +549,6 @@
     <t>Erewhon</t>
   </si>
   <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
     <t>Address.district</t>
   </si>
   <si>
@@ -648,12 +571,6 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J84-DepartementOM-RASS/FHIR/JDV-J84-DepartementOM-RASS</t>
   </si>
   <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
     <t>Address.state</t>
   </si>
   <si>
@@ -667,18 +584,6 @@
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>./Region</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
     <t>Address.postalCode</t>
   </si>
   <si>
@@ -695,18 +600,6 @@
     <t>9132</t>
   </si>
   <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>./PostalIdentificationCode</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>Address.country</t>
   </si>
   <si>
@@ -720,18 +613,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J74-Pays-RASS/FHIR/JDV-J74-Pays-RASS</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>./Country</t>
-  </si>
-  <si>
-    <t>country</t>
   </si>
   <si>
     <t>Address.period</t>
@@ -745,6 +626,10 @@
   </si>
   <si>
     <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).</t>
   </si>
   <si>
     <t>Allows addresses to be placed in historical context.</t>
@@ -756,13 +641,8 @@
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +954,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1083,45 +963,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.5078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.35546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="11.23828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="58.12109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="59.8515625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="93.1171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.66015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.57421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.1171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="24.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1233,18 +1109,6 @@
       <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AK1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>74</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -1255,2711 +1119,2445 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>28</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN4" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN5" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="J6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="U6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN6" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>196</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>213</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>222</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>231</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN25">
+  <autoFilter ref="A1:AJ25">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$30</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="231">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-2</t>
+    <t>1.0.0-ballot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T12:08:09+00:00</t>
+    <t>2023-12-19T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>
@@ -250,13 +256,17 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Address.id</t>
   </si>
   <si>
@@ -363,10 +373,6 @@
     <t>http://hl7.org/fhir/ValueSet/address-use</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>Address.type</t>
   </si>
   <si>
@@ -376,7 +382,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -437,6 +443,9 @@
 </t>
   </si>
   <si>
+    <t>pointRemise (Adresse)</t>
+  </si>
+  <si>
     <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
   </si>
   <si>
@@ -450,6 +459,9 @@
 </t>
   </si>
   <si>
+    <t>complementPointGeographique (Adresse)</t>
+  </si>
+  <si>
     <t>This can be a unit designator, such as apartment number, suite number, or floor. There may be several unit designators in an address (e.g., "3rd floor, Appt. 342"). This can also be a designator pointing away from the location, rather than specifying a smaller location within some larger one (e.g., Dutch "t.o." means "opposite to" for house boats located across the street facing houses).</t>
   </si>
   <si>
@@ -463,6 +475,9 @@
 </t>
   </si>
   <si>
+    <t>numeroVoie(Adresse)</t>
+  </si>
+  <si>
     <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
   </si>
   <si>
@@ -476,6 +491,9 @@
 </t>
   </si>
   <si>
+    <t>(Adresse)</t>
+  </si>
+  <si>
     <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
   </si>
   <si>
@@ -489,36 +507,113 @@
 </t>
   </si>
   <si>
+    <t>typeVoie (Adresse)</t>
+  </si>
+  <si>
     <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
   </si>
   <si>
-    <t>Address.line.extension:streetNamebase</t>
-  </si>
-  <si>
-    <t>streetNamebase</t>
+    <t>Address.line.extension:streetNameType.id</t>
+  </si>
+  <si>
+    <t>Address.line.extension.id</t>
+  </si>
+  <si>
+    <t>Address.line.extension:streetNameType.extension</t>
+  </si>
+  <si>
+    <t>Address.line.extension.extension</t>
+  </si>
+  <si>
+    <t>Address.line.extension:streetNameType.url</t>
+  </si>
+  <si>
+    <t>Address.line.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetNameType</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Address.line.extension:streetNameType.value[x]</t>
+  </si>
+  <si>
+    <t>Address.line.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J103-TypeVoie-RASS/FHIR/JDV-J103-TypeVoie-RASS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Address.line.extension:postBox</t>
+  </si>
+  <si>
+    <t>postBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-postBox}
+</t>
+  </si>
+  <si>
+    <t>mentionDistribution (Adresse)</t>
+  </si>
+  <si>
+    <t>A numbered box located in a post station.</t>
+  </si>
+  <si>
+    <t>Address.line.extension:streetNameBase</t>
+  </si>
+  <si>
+    <t>streetNameBase</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {iso21090-ADXP-streetNameBase}
 </t>
   </si>
   <si>
-    <t>streetNameBase</t>
+    <t>libelleVoie (Adresse)</t>
   </si>
   <si>
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
-    <t>Address.line.extension:postBox</t>
-  </si>
-  <si>
-    <t>postBox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-postBox}
+    <t>Address.line.extension:precinct</t>
+  </si>
+  <si>
+    <t>precinct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-precinct}
 </t>
   </si>
   <si>
-    <t>A numbered box located in a post station.</t>
+    <t>lieuDit (Adresse) : Lieu qui porte un nom rappelant une particularité topographique ou historique.</t>
+  </si>
+  <si>
+    <t>A subsection of a municipality.</t>
   </si>
   <si>
     <t>Address.line.value</t>
@@ -629,7 +724,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).</t>
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
   </si>
   <si>
     <t>Allows addresses to be placed in historical context.</t>
@@ -764,10 +859,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -791,7 +886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -891,21 +986,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -945,6 +1040,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +1057,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -963,8 +1066,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.33984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.4140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1002,2562 +1105,3066 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI6" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ6" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI7" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ7" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI8" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ8" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI20" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ20" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI21" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ21" t="s" s="2">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI22" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ22" t="s" s="2">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI23" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ23" t="s" s="2">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI25" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ25" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y29" s="2"/>
+      <c r="Z29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ25">
+  <autoFilter ref="A1:AJ30">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3567,7 +4174,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI24">
+  <conditionalFormatting sqref="A2:AI29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -600,20 +600,20 @@
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
-    <t>Address.line.extension:precinct</t>
-  </si>
-  <si>
-    <t>precinct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-precinct}
+    <t>Address.line.extension:lieuDit</t>
+  </si>
+  <si>
+    <t>lieuDit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-lieu-dit}
 </t>
   </si>
   <si>
     <t>lieuDit (Adresse) : Lieu qui porte un nom rappelant une particularité topographique ou historique.</t>
   </si>
   <si>
-    <t>A subsection of a municipality.</t>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour indiquer le lieu dit</t>
   </si>
   <si>
     <t>Address.line.value</t>
@@ -1076,7 +1076,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$30</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/StructureDefinition/FrAddress</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: ServD</t>
+  </si>
+  <si>
+    <t>Mapping: vCard Mapping</t>
   </si>
   <si>
     <t/>
@@ -267,6 +279,12 @@
 </t>
   </si>
   <si>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
     <t>Address.id</t>
   </si>
   <si>
@@ -286,6 +304,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Address.extension</t>
   </si>
   <si>
@@ -329,14 +350,14 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interopsante.org/fhir/StructureDefinition/FrAddressInseeCode}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Code COG de la ville</t>
+  </si>
+  <si>
+    <t>This extension adds the insee code (5 digits) to the address | Ajout du code insee (5 chiffres) à l'adresse postale</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -370,7 +391,16 @@
     <t>The use of an address.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use</t>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./AddressPurpose</t>
   </si>
   <si>
     <t>Address.type</t>
@@ -391,7 +421,13 @@
     <t>The type of an address (physical / postal).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type</t>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>address type parameter</t>
   </si>
   <si>
     <t>Address.text</t>
@@ -412,6 +448,15 @@
     <t>137 Nowhere Street, Erewhon 9132</t>
   </si>
   <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>address label parameter</t>
+  </si>
+  <si>
     <t>Address.line</t>
   </si>
   <si>
@@ -421,16 +466,28 @@
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>137 Nowhere Street</t>
   </si>
   <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>./StreetAddress (newline delimitted)</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
     <t>Address.line.id</t>
   </si>
   <si>
     <t>Address.line.extension</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Address.line.extension:careOf</t>
@@ -449,6 +506,9 @@
     <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
   </si>
   <si>
+    <t>ADXP[partType=CAR]</t>
+  </si>
+  <si>
     <t>Address.line.extension:additionalLocator</t>
   </si>
   <si>
@@ -465,6 +525,9 @@
     <t>This can be a unit designator, such as apartment number, suite number, or floor. There may be several unit designators in an address (e.g., "3rd floor, Appt. 342"). This can also be a designator pointing away from the location, rather than specifying a smaller location within some larger one (e.g., Dutch "t.o." means "opposite to" for house boats located across the street facing houses).</t>
   </si>
   <si>
+    <t>ADXP[partType=ADL]</t>
+  </si>
+  <si>
     <t>Address.line.extension:houseNumber</t>
   </si>
   <si>
@@ -481,6 +544,9 @@
     <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
   </si>
   <si>
+    <t>ADXP[partType=BNR]</t>
+  </si>
+  <si>
     <t>Address.line.extension:buildingNumberSuffix</t>
   </si>
   <si>
@@ -497,6 +563,9 @@
     <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
   </si>
   <si>
+    <t>ADXP[partType=BNS]</t>
+  </si>
+  <si>
     <t>Address.line.extension:streetNameType</t>
   </si>
   <si>
@@ -513,6 +582,9 @@
     <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
   </si>
   <si>
+    <t>ADXP[partType=STTYP]</t>
+  </si>
+  <si>
     <t>Address.line.extension:streetNameType.id</t>
   </si>
   <si>
@@ -584,6 +656,9 @@
     <t>A numbered box located in a post station.</t>
   </si>
   <si>
+    <t>ADXP[partType=POB]</t>
+  </si>
+  <si>
     <t>Address.line.extension:streetNameBase</t>
   </si>
   <si>
@@ -600,6 +675,9 @@
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
+    <t>ADXP[partType=STB]</t>
+  </si>
+  <si>
     <t>Address.line.extension:lieuDit</t>
   </si>
   <si>
@@ -635,13 +713,25 @@
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.</t>
+    <t>Les communes existantes sont définies ici : https://public.opendatasoft.com/explore/dataset/correspondance-code-insee-code-postal/table.</t>
   </si>
   <si>
     <t>The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
     <t>Erewhon</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>./Jurisdiction</t>
+  </si>
+  <si>
+    <t>locality</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -666,6 +756,12 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J84-DepartementOM-RASS/FHIR/JDV-J84-DepartementOM-RASS</t>
   </si>
   <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
     <t>Address.state</t>
   </si>
   <si>
@@ -679,6 +775,18 @@
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>./Region</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
     <t>Address.postalCode</t>
   </si>
   <si>
@@ -695,6 +803,18 @@
     <t>9132</t>
   </si>
   <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>./PostalIdentificationCode</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>Address.country</t>
   </si>
   <si>
@@ -704,10 +824,22 @@
     <t>Country - a nation as commonly understood or generally accepted.</t>
   </si>
   <si>
-    <t>ISO 3166 3 letter codes can be used in place of a full country name. FRA for France.</t>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J74-Pays-RASS/FHIR/JDV-J74-Pays-RASS</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>./Country</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
   <si>
     <t>Address.period</t>
@@ -721,10 +853,6 @@
   </si>
   <si>
     <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
   </si>
   <si>
     <t>Allows addresses to be placed in historical context.</t>
@@ -736,8 +864,13 @@
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1101,6 +1234,10 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.2578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="27.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1212,6 +1349,18 @@
       <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -1222,2949 +1371,3285 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
+      <c r="AM4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="U6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="U7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="Y7" t="s" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>133</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>142</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>231</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>248</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>257</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>266</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>230</v>
+        <v>85</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ30">
+  <autoFilter ref="A1:AN30">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-address-extended.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$30</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="294">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: AsAddressExtendedProfile to MOS - Adresse</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -279,6 +282,9 @@
 </t>
   </si>
   <si>
+    <t>Adresse</t>
+  </si>
+  <si>
     <t>XAD</t>
   </si>
   <si>
@@ -354,10 +360,13 @@
 </t>
   </si>
   <si>
-    <t>Code COG de la ville</t>
+    <t>FR Core Address Insee Code Extension</t>
   </si>
   <si>
     <t>This extension adds the insee code (5 digits) to the address | Ajout du code insee (5 chiffres) à l'adresse postale</t>
+  </si>
+  <si>
+    <t>Adresse.COGCommune</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -484,10 +493,19 @@
     <t>Address.line.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
     <t>Address.line.extension</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Address.line.extension:careOf</t>
@@ -506,6 +524,9 @@
     <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
   </si>
   <si>
+    <t>Adresse.complementPointGeographique</t>
+  </si>
+  <si>
     <t>ADXP[partType=CAR]</t>
   </si>
   <si>
@@ -544,6 +565,9 @@
     <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
   </si>
   <si>
+    <t>Adresse.numeroVoie</t>
+  </si>
+  <si>
     <t>ADXP[partType=BNR]</t>
   </si>
   <si>
@@ -563,6 +587,9 @@
     <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
   </si>
   <si>
+    <t>Adresse.extension</t>
+  </si>
+  <si>
     <t>ADXP[partType=BNS]</t>
   </si>
   <si>
@@ -582,6 +609,9 @@
     <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
   </si>
   <si>
+    <t>Adresse.typeVoie</t>
+  </si>
+  <si>
     <t>ADXP[partType=STTYP]</t>
   </si>
   <si>
@@ -589,6 +619,10 @@
   </si>
   <si>
     <t>Address.line.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
   </si>
   <si>
     <t>Address.line.extension:streetNameType.extension</t>
@@ -622,6 +656,9 @@
     <t>Extension.url</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Address.line.extension:streetNameType.value[x]</t>
   </si>
   <si>
@@ -631,13 +668,17 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J103-TypeVoie-RASS/FHIR/JDV-J103-TypeVoie-RASS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
   </si>
   <si>
     <t>Address.line.extension:postBox</t>
@@ -675,6 +716,9 @@
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
+    <t>Adresse.libelleVoie</t>
+  </si>
+  <si>
     <t>ADXP[partType=STB]</t>
   </si>
   <si>
@@ -694,10 +738,16 @@
     <t>Extension créée dans le cadre de l'Annuaire Santé pour indiquer le lieu dit</t>
   </si>
   <si>
+    <t>Adresse.lieuDit</t>
+  </si>
+  <si>
     <t>Address.line.value</t>
   </si>
   <si>
     <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
   </si>
   <si>
     <t>1048576</t>
@@ -722,6 +772,9 @@
     <t>Erewhon</t>
   </si>
   <si>
+    <t>Adresse.localite</t>
+  </si>
+  <si>
     <t>XAD.3</t>
   </si>
   <si>
@@ -753,7 +806,7 @@
     <t>Madison</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J84-DepartementOM-RASS/FHIR/JDV-J84-DepartementOM-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J258-Departement/FHIR/JDV-J258-Departement</t>
   </si>
   <si>
     <t>XAD.9</t>
@@ -803,6 +856,9 @@
     <t>9132</t>
   </si>
   <si>
+    <t>Adresse.codePostal</t>
+  </si>
+  <si>
     <t>XAD.5</t>
   </si>
   <si>
@@ -827,7 +883,7 @@
     <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J74-Pays-RASS/FHIR/JDV-J74-Pays-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J256-Pays/FHIR/JDV-J256-Pays</t>
   </si>
   <si>
     <t>XAD.6</t>
@@ -1190,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1224,7 +1280,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="39.6640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.51953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1234,10 +1290,11 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.2578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="27.0546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="57.3671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="30.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="34.2578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="27.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1361,6 +1418,9 @@
       <c r="AN1" t="s" s="1">
         <v>76</v>
       </c>
+      <c r="AO1" t="s" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -1371,3285 +1431,3366 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AN2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="AN2" t="s" s="2">
-        <v>77</v>
+      <c r="AO2" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>136</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>145</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="U9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>248</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>265</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>275</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>283</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN30">
+  <autoFilter ref="A1:AO30">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
